--- a/DOCS/Test Cases/TC08- Progress Report .xlsx
+++ b/DOCS/Test Cases/TC08- Progress Report .xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Intput Type</t>
   </si>
@@ -45,21 +45,6 @@
     <t>Opt8</t>
   </si>
   <si>
-    <t>Show iformation</t>
-  </si>
-  <si>
-    <t>Crisis name</t>
-  </si>
-  <si>
-    <t>Action on page</t>
-  </si>
-  <si>
-    <t>Save</t>
-  </si>
-  <si>
-    <t>Back</t>
-  </si>
-  <si>
     <t>Explanation:</t>
   </si>
   <si>
@@ -78,10 +63,49 @@
     <t>Expected Output</t>
   </si>
   <si>
-    <t>Incident name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Line Chart </t>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Empty</t>
+  </si>
+  <si>
+    <t>Progress status</t>
+  </si>
+  <si>
+    <t>Not empty</t>
+  </si>
+  <si>
+    <t>Selected</t>
+  </si>
+  <si>
+    <t>TC08:01</t>
+  </si>
+  <si>
+    <t>O1:Empty</t>
+  </si>
+  <si>
+    <t>O1:Selected</t>
+  </si>
+  <si>
+    <t>TC08:02</t>
+  </si>
+  <si>
+    <t>Reporting the progress of the accepted incident without the message</t>
+  </si>
+  <si>
+    <t>Reporting the progress of the accepted incident with valide data</t>
+  </si>
+  <si>
+    <t>O1: Not Empty</t>
+  </si>
+  <si>
+    <t>Progress report is registered in the system</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Error message shown</t>
   </si>
 </sst>
 </file>
@@ -615,7 +639,7 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -656,17 +680,15 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>21</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D2" s="20"/>
       <c r="E2" s="8"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
@@ -675,14 +697,12 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>13</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="6"/>
@@ -921,28 +941,28 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A5"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.28515625" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" customWidth="1"/>
     <col min="6" max="6" width="0.140625" customWidth="1"/>
     <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="12.5703125" style="9" customWidth="1"/>
-    <col min="10" max="10" width="33.5703125" customWidth="1"/>
+    <col min="10" max="10" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C1" s="21"/>
       <c r="D1" s="21"/>
@@ -954,13 +974,13 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="22" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="22" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
@@ -969,52 +989,65 @@
       <c r="H2" s="22"/>
       <c r="I2" s="16"/>
       <c r="J2" s="24" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="15" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>21</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="E3" s="15"/>
       <c r="F3" s="17"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
-      <c r="I3" s="13" t="s">
-        <v>11</v>
-      </c>
+      <c r="I3" s="13"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="47.25" customHeight="1" thickTop="1">
-      <c r="A4" s="9"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
+      <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="9"/>
       <c r="H4" s="18"/>
       <c r="I4" s="10"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" customHeight="1">
-      <c r="A5" s="9"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="J4" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" s="9" customFormat="1" ht="47.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
       <c r="H5" s="18"/>
       <c r="I5" s="10"/>
-      <c r="J5" s="9"/>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="9"/>
